--- a/data/long_razon/P24_1-Edad-long_razon.xlsx
+++ b/data/long_razon/P24_1-Edad-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-56,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>22,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-61,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-21,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-18,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-38,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-41,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,33%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-35,8; 67,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-74,23; -28,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-27,68; 97,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-75,69; -42,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-48,49; 16,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-43,81; 20,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-54,7; -14,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-57,93; -17,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-25,87; 38,49</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +850,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>27,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-16,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-7,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-10,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-13,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +933,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-19,21; 105,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-54,98; 46,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-47,42; 58,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-40,53; 40,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-41,37; 38,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-28,65; 49,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-24,77; 52,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-40,65; 19,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-30,7; 39,34</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +1020,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-9,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-25,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-38,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-24,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-38,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-17,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-33,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-15,19%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1103,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-42,88; 52,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-53,46; 9,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-58,57; -7,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-48,83; 4,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-54,75; -17,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,83; 46,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-37,38; 18,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-48,4; -15,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-32,45; 5,58</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1190,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>24,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-8,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-6,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-2,09%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1273,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 77,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-30,46; 41,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-26,17; 43,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-34,24; 23,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,27; 47,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-26,17; 23,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-15,11; 34,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,5; 30,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-20,97; 19,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1360,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>62,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-7,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-32,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>26,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>44,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>43,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-17,34%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1443,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,7; 154,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-37,65; 35,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-52,77; -3,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,21; 101,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 117,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-29,39; 35,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,22; 91,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-12,85; 55,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-35,17; 5,51</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1530,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>24,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-20,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>38,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>33,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-0,62%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1613,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-38,13; 78,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-26,03; 116,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-52,15; 27,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-34,61; 68,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-10,29; 109,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-21,41; 75,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-23,57; 49,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 87,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-27,04; 35,03</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1700,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>15,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-20,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-13,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-17,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-11,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-6,4%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1345,62 +1783,99 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 43,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-34,78; -4,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-28,71; 1,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-29,08; -1,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-15,47; 12,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,1; 14,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 10,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-20,87; -0,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-16,37; 4,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/long_razon/P24_1-Edad-long_razon.xlsx
+++ b/data/long_razon/P24_1-Edad-long_razon.xlsx
@@ -683,21 +683,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
-      <c r="O4" s="5" t="inlineStr"/>
-      <c r="P4" s="5" t="inlineStr"/>
-      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.06934830390192889</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.6103850945129869</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.2251138543984988</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.4958043087529337</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.1847453780525655</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.6241232396605355</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.2658210711706109</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.2153759884167921</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.04590612151871414</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.3182353927043149</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.4316084167613428</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>-0.4654932325168076</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>-0.03340414622408655</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>-0.2794278886314047</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>0.2459116425242613</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -706,21 +736,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
-      <c r="O5" s="5" t="inlineStr"/>
-      <c r="P5" s="5" t="inlineStr"/>
-      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.4258438059099198</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.7902317987147449</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.2404528579982907</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.7623664049676543</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.5011778561211593</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.7747368883606888</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.5032275632522895</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.4908780683042032</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.3534819839629108</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.2753738304816457</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.5859542641359203</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.6212260568158012</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>-0.2857962804297561</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>-0.4960827588581171</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>-0.2247146861881345</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -729,21 +789,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
-      <c r="O6" s="5" t="inlineStr"/>
-      <c r="P6" s="5" t="inlineStr"/>
-      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>0.5441621419382715</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-0.4065503959325965</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.120627372404666</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-0.06565957912267113</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>1.747003352163304</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-0.4164416544587903</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.09447901107984044</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.1446217845035701</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.4767798988143515</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>1.580407884019276</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>-0.2160831967822731</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>-0.2672759031771071</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>0.3083376314283796</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>0.03635167639971525</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>1.049504159468687</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -756,21 +846,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
-      <c r="O7" s="5" t="inlineStr"/>
-      <c r="P7" s="5" t="inlineStr"/>
-      <c r="Q7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>0.3722531847020115</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.133924000871544</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.01793626792989755</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.035828601411283</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>2.809414020518896</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.1314531050296108</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.1545788070297864</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.03237967231286033</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.8097716768223551</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.2497177504978226</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.1134256849356848</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>-0.1441801898891727</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>0.02424954380512509</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>0.9361324189399469</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>1.104058379781698</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -779,21 +899,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
-      <c r="O8" s="5" t="inlineStr"/>
-      <c r="P8" s="5" t="inlineStr"/>
-      <c r="Q8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.1633766249319039</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.5493989684122492</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.4707115150569675</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0.1616407178674186</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0.6470005938952749</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.4570792529585439</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.4418232587738459</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.3043540952940473</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>0.1937496349744276</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.2207654834947742</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.1899371973238619</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.40575196350593</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>-0.2998016642977133</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>0.3351570358992431</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>0.3395492062812959</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -802,21 +952,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
-      <c r="O9" s="5" t="inlineStr"/>
-      <c r="P9" s="5" t="inlineStr"/>
-      <c r="Q9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>1.396259185667615</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.4664925364894416</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.6290002069913925</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>3.423335423846468</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>15.05850815784074</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.3523418406227201</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.2616815364212702</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.4939248387744942</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>1.892684517709181</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>1.110213634699821</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.611105396667739</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.1946601002240549</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>0.3857855359155437</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>2.0746170207163</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>2.911155045880542</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -829,21 +1009,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
-      <c r="O10" s="5" t="inlineStr"/>
-      <c r="P10" s="5" t="inlineStr"/>
-      <c r="Q10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.2179474734489874</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.2819748180300476</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.3786292948743354</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.292815826140819</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.4130743670113705</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.2615621595591329</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.4009516566319672</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.1605227732705053</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.2207301092674361</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.01985305770440538</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>-0.2386899458596446</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>-0.3474236828494192</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>-0.1365720534755726</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>0.2535800320429825</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>0.2173089783245652</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -852,21 +1062,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
-      <c r="O11" s="5" t="inlineStr"/>
-      <c r="P11" s="5" t="inlineStr"/>
-      <c r="Q11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.5281417737934428</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.561276322629404</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.5848737665433695</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.1559557919581532</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.120272304256056</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.468315596119977</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.5539744885753456</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.09383873919753405</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.11367339179379</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.3618562625350185</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.440768936218832</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.4972697866602152</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>-0.3264132618312122</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>0.007116856567863567</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>-0.09710273544936646</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -875,21 +1115,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
-      <c r="O12" s="5" t="inlineStr"/>
-      <c r="P12" s="5" t="inlineStr"/>
-      <c r="Q12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>0.1784345774607177</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.04786823357776959</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-0.08356629955833302</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.8639972180105661</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>1.121270090545455</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.02637277763298756</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>-0.2006241503396843</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.506364423656756</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.6232251166148758</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.4932319845169541</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.02838651439890326</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>-0.1421241290722595</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>0.08745396947927825</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>0.590434751114796</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>0.6547505814531399</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -902,21 +1172,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
-      <c r="O13" s="5" t="inlineStr"/>
-      <c r="P13" s="5" t="inlineStr"/>
-      <c r="Q13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>0.1999811675913976</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.01097942780305558</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.10740069301039</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.3727083725000138</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.008667316028230353</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.06686616227346548</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.07093632513618084</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.06142222470438503</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.2778901700009914</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>-0.0268733075538713</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.04271128346708859</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.04296693446229616</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>0.01241794829202492</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>0.3253047476521424</v>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>-0.01783985872479523</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -925,21 +1225,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
-      <c r="O14" s="5" t="inlineStr"/>
-      <c r="P14" s="5" t="inlineStr"/>
-      <c r="Q14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.1796217463725881</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.2813881707981757</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.163368940247732</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.02851150427530463</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.400817061132889</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.3168857087055612</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.2068481552258248</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.2616233229501452</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.07181450920875777</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.3516158302170591</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.1799978172058168</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.1610944958160786</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>-0.1934226365515912</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>0.05153712714653846</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>-0.2850846199313102</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -948,21 +1278,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
-      <c r="O15" s="5" t="inlineStr"/>
-      <c r="P15" s="5" t="inlineStr"/>
-      <c r="Q15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.748401387401574</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.4688702751347247</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.5545155403143049</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.129858706904582</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.662179033970216</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.2654846158919159</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.3940199642624704</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.2287704431732415</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.7354684849609802</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.4853201100376564</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.288962173046615</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.3344398579859521</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>0.2290395162045327</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>0.7066628576976426</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>0.308541467892456</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -975,21 +1335,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr"/>
-      <c r="D16" s="5" t="inlineStr"/>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
-      <c r="G16" s="5" t="inlineStr"/>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="5" t="inlineStr"/>
-      <c r="J16" s="5" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr"/>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr"/>
-      <c r="O16" s="5" t="inlineStr"/>
-      <c r="P16" s="5" t="inlineStr"/>
-      <c r="Q16" s="5" t="inlineStr"/>
+      <c r="C16" s="5" t="n">
+        <v>0.6362384900937172</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-0.08878679216493583</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.3260071344049948</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-0.01825680077532717</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>-0.2014640761187765</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>0.2771492515122204</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>0.4422861213500723</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>-0.008192983180997811</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>-0.07284808146024874</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>0.2534939163188925</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>0.4400869055882591</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>0.132676574590103</v>
+      </c>
+      <c r="O16" s="5" t="n">
+        <v>-0.1699440953084204</v>
+      </c>
+      <c r="P16" s="5" t="n">
+        <v>-0.04706114492759259</v>
+      </c>
+      <c r="Q16" s="5" t="n">
+        <v>0.01468080693514766</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -998,21 +1388,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="inlineStr"/>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="inlineStr"/>
-      <c r="K17" s="5" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="inlineStr"/>
-      <c r="O17" s="5" t="inlineStr"/>
-      <c r="P17" s="5" t="inlineStr"/>
-      <c r="Q17" s="5" t="inlineStr"/>
+      <c r="C17" s="5" t="n">
+        <v>0.08677283888123505</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-0.4195773325063074</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-0.5321843489139276</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-0.3849526280567804</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-0.5309540855274869</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-0.1375062246579629</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>-0.076206746416697</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>-0.270143947302677</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>-0.3993688582383864</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>-0.1968143832418161</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>0.08335938502185065</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>-0.1769840270714866</v>
+      </c>
+      <c r="O17" s="5" t="n">
+        <v>-0.3411655321204221</v>
+      </c>
+      <c r="P17" s="5" t="n">
+        <v>-0.3129611416211626</v>
+      </c>
+      <c r="Q17" s="5" t="n">
+        <v>-0.2736601786892484</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -1021,21 +1441,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr"/>
-      <c r="O18" s="5" t="inlineStr"/>
-      <c r="P18" s="5" t="inlineStr"/>
-      <c r="Q18" s="5" t="inlineStr"/>
+      <c r="C18" s="5" t="n">
+        <v>1.521034630464497</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.3394223271013064</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>-0.001355419335739247</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0.551705024022262</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.4007191451945045</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>0.9020023969816423</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>1.19480246244086</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>0.4035499785108604</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>0.4542619281310255</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>0.9447715845994338</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>0.9431148607160105</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>0.500744581201759</v>
+      </c>
+      <c r="O18" s="5" t="n">
+        <v>0.04419962291722482</v>
+      </c>
+      <c r="P18" s="5" t="n">
+        <v>0.2635945699199145</v>
+      </c>
+      <c r="Q18" s="5" t="n">
+        <v>0.4685201378906469</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1048,21 +1498,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr"/>
-      <c r="D19" s="5" t="inlineStr"/>
-      <c r="E19" s="5" t="inlineStr"/>
-      <c r="F19" s="5" t="inlineStr"/>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr"/>
-      <c r="L19" s="5" t="inlineStr"/>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr"/>
-      <c r="O19" s="5" t="inlineStr"/>
-      <c r="P19" s="5" t="inlineStr"/>
-      <c r="Q19" s="5" t="inlineStr"/>
+      <c r="C19" s="5" t="n">
+        <v>0.08371503010493993</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0.2256552367000843</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-0.1842607440448066</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0.01592000651138028</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>0.4999046413490242</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>0.1997046729619223</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>0.3686937070810637</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>0.1421492311237853</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>0.7023312608514983</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>2.315257979420712</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>0.1438873469427993</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>0.3143702540379912</v>
+      </c>
+      <c r="O19" s="5" t="n">
+        <v>-2.436273118895858e-05</v>
+      </c>
+      <c r="P19" s="5" t="n">
+        <v>0.4030393352319576</v>
+      </c>
+      <c r="Q19" s="5" t="n">
+        <v>1.334080675736615</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -1071,21 +1551,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr"/>
-      <c r="K20" s="5" t="inlineStr"/>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr"/>
-      <c r="O20" s="5" t="inlineStr"/>
-      <c r="P20" s="5" t="inlineStr"/>
-      <c r="Q20" s="5" t="inlineStr"/>
+      <c r="C20" s="5" t="n">
+        <v>-0.4709811878882444</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-0.3128067528236906</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-0.5097201591026952</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-0.4435937970836732</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>-0.2533645681879216</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>-0.2255439371482954</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>-0.09235528016451533</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>-0.2174873818543382</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>0.06785339221240853</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>0.6539823368224735</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>-0.1823781901486568</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>-0.07184166823109001</v>
+      </c>
+      <c r="O20" s="5" t="n">
+        <v>-0.250159989466148</v>
+      </c>
+      <c r="P20" s="5" t="n">
+        <v>-0.03096063401633908</v>
+      </c>
+      <c r="Q20" s="5" t="n">
+        <v>0.4703555469068652</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1094,21 +1604,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="5" t="inlineStr"/>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="inlineStr"/>
-      <c r="K21" s="5" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr"/>
-      <c r="O21" s="5" t="inlineStr"/>
-      <c r="P21" s="5" t="inlineStr"/>
-      <c r="Q21" s="5" t="inlineStr"/>
+      <c r="C21" s="5" t="n">
+        <v>0.7317373101288561</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>1.249601774244719</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>0.2767618919142292</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>0.9532554851797955</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>1.936984921167587</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>0.9626982879816828</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>1.106215263265826</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>0.6544434756115562</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>1.94050142014066</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>7.098279011258164</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>0.6827628153258143</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>0.8197009142262988</v>
+      </c>
+      <c r="O21" s="5" t="n">
+        <v>0.3740189514816173</v>
+      </c>
+      <c r="P21" s="5" t="n">
+        <v>1.055922594978343</v>
+      </c>
+      <c r="Q21" s="5" t="n">
+        <v>3.025761654924572</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1121,21 +1661,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr"/>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="5" t="inlineStr"/>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="5" t="inlineStr"/>
-      <c r="J22" s="5" t="inlineStr"/>
-      <c r="K22" s="5" t="inlineStr"/>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr"/>
-      <c r="O22" s="5" t="inlineStr"/>
-      <c r="P22" s="5" t="inlineStr"/>
-      <c r="Q22" s="5" t="inlineStr"/>
+      <c r="C22" s="5" t="n">
+        <v>0.1068643676964369</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.2221051023852134</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.1183901164225857</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1704875754663651</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.3907146653327287</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>-0.1598144894710907</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>-0.06391276075338991</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>0.007412995877635263</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>0.2861843893724575</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>0.3525017177025524</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>-0.03935261829919697</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>-0.1423892484732786</v>
+      </c>
+      <c r="O22" s="5" t="n">
+        <v>-0.05390979851927825</v>
+      </c>
+      <c r="P22" s="5" t="n">
+        <v>0.2296113213555005</v>
+      </c>
+      <c r="Q22" s="5" t="n">
+        <v>0.3713503799726071</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1144,21 +1714,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="inlineStr"/>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="inlineStr"/>
-      <c r="K23" s="5" t="inlineStr"/>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr"/>
-      <c r="O23" s="5" t="inlineStr"/>
-      <c r="P23" s="5" t="inlineStr"/>
-      <c r="Q23" s="5" t="inlineStr"/>
+      <c r="C23" s="5" t="n">
+        <v>-0.1033823360347431</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.3673470000059153</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.2616547162234168</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-0.0668094771742628</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1027616739815557</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-0.2848222372955913</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>-0.1952321838581799</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>-0.1186949553337935</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>0.1047861196335685</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>0.1025233998447759</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>-0.1495946205662853</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>-0.2448479477057035</v>
+      </c>
+      <c r="O23" s="5" t="n">
+        <v>-0.1459456943923971</v>
+      </c>
+      <c r="P23" s="5" t="n">
+        <v>0.07131941454118705</v>
+      </c>
+      <c r="Q23" s="5" t="n">
+        <v>0.1628416630275784</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1167,21 +1767,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="inlineStr"/>
-      <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr"/>
-      <c r="O24" s="5" t="inlineStr"/>
-      <c r="P24" s="5" t="inlineStr"/>
-      <c r="Q24" s="5" t="inlineStr"/>
+      <c r="C24" s="5" t="n">
+        <v>0.354769482053601</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>-0.06652013693452044</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.04788950376152748</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.5036836088506327</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.8582755638712419</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>-0.02605045584471888</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>0.0833548165727953</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>0.1443473637897155</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>0.5068887492808899</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>0.6632445139426474</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>0.09054182123320058</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>-0.03809569059357704</v>
+      </c>
+      <c r="O24" s="5" t="n">
+        <v>0.05990216671072741</v>
+      </c>
+      <c r="P24" s="5" t="n">
+        <v>0.4152134862396158</v>
+      </c>
+      <c r="Q24" s="5" t="n">
+        <v>0.6108137981643386</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
